--- a/artfynd/A 37664-2023.xlsx
+++ b/artfynd/A 37664-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111697636</v>
+        <v>111697304</v>
       </c>
       <c r="B2" t="n">
-        <v>88489</v>
+        <v>8377</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,34 +692,36 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1962</v>
+        <v>106545</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -727,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>373112.5181173298</v>
+        <v>373090.8741807578</v>
       </c>
       <c r="R2" t="n">
-        <v>6865358.590016441</v>
+        <v>6865424.499624529</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -773,11 +775,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Växer under rötad gammal silverved</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,22 +794,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Kontinuitetsskog. Tallskog</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Luckig tallskog. K-skog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -830,7 +812,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111697304</v>
+        <v>111697236</v>
       </c>
       <c r="B3" t="n">
         <v>8377</v>
@@ -879,10 +861,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>373090.8741807578</v>
+        <v>373121.3523494597</v>
       </c>
       <c r="R3" t="n">
-        <v>6865424.499624529</v>
+        <v>6865443.651501717</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -914,7 +896,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -924,7 +906,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -944,7 +926,22 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Luckig tallskog. K-skog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -962,10 +959,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111697236</v>
+        <v>111697636</v>
       </c>
       <c r="B4" t="n">
-        <v>8377</v>
+        <v>88489</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -974,36 +971,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106545</v>
+        <v>1962</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1011,10 +1006,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>373121.3523494597</v>
+        <v>373112.5181173298</v>
       </c>
       <c r="R4" t="n">
-        <v>6865443.651501717</v>
+        <v>6865358.590016441</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1046,7 +1041,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1056,7 +1051,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Växer under rötad gammal silverved</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
+          <t>Kontinuitetsskog. Tallskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">

--- a/artfynd/A 37664-2023.xlsx
+++ b/artfynd/A 37664-2023.xlsx
@@ -812,10 +812,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111697236</v>
+        <v>111697636</v>
       </c>
       <c r="B3" t="n">
-        <v>8377</v>
+        <v>88489</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -824,36 +824,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106545</v>
+        <v>1962</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -861,10 +859,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>373121.3523494597</v>
+        <v>373112.5181173298</v>
       </c>
       <c r="R3" t="n">
-        <v>6865443.651501717</v>
+        <v>6865358.590016441</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -896,7 +894,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -906,7 +904,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Växer under rötad gammal silverved</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -926,7 +929,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
+          <t>Kontinuitetsskog. Tallskog</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -959,10 +962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111697636</v>
+        <v>111697236</v>
       </c>
       <c r="B4" t="n">
-        <v>88489</v>
+        <v>8377</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -971,34 +974,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1962</v>
+        <v>106545</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1006,10 +1011,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>373112.5181173298</v>
+        <v>373121.3523494597</v>
       </c>
       <c r="R4" t="n">
-        <v>6865358.590016441</v>
+        <v>6865443.651501717</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1041,7 +1046,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1051,12 +1056,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Växer under rötad gammal silverved</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Kontinuitetsskog. Tallskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">

--- a/artfynd/A 37664-2023.xlsx
+++ b/artfynd/A 37664-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111697304</v>
+        <v>111697236</v>
       </c>
       <c r="B2" t="n">
         <v>8377</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>373090.8741807578</v>
+        <v>373121.3523494597</v>
       </c>
       <c r="R2" t="n">
-        <v>6865424.499624529</v>
+        <v>6865443.651501717</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -794,7 +794,22 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Luckig tallskog. K-skog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -962,7 +977,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111697236</v>
+        <v>111697304</v>
       </c>
       <c r="B4" t="n">
         <v>8377</v>
@@ -1011,10 +1026,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>373121.3523494597</v>
+        <v>373090.8741807578</v>
       </c>
       <c r="R4" t="n">
-        <v>6865443.651501717</v>
+        <v>6865424.499624529</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1046,7 +1061,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1056,7 +1071,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1076,22 +1091,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Luckig tallskog. K-skog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>

--- a/artfynd/A 37664-2023.xlsx
+++ b/artfynd/A 37664-2023.xlsx
@@ -827,10 +827,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111697636</v>
+        <v>111697304</v>
       </c>
       <c r="B3" t="n">
-        <v>88489</v>
+        <v>8377</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -839,34 +839,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1962</v>
+        <v>106545</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -874,10 +876,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>373112.5181173298</v>
+        <v>373090.8741807578</v>
       </c>
       <c r="R3" t="n">
-        <v>6865358.590016441</v>
+        <v>6865424.499624529</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -920,11 +922,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Växer under rötad gammal silverved</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -944,22 +941,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Kontinuitetsskog. Tallskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Luckig tallskog. K-skog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -977,10 +959,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111697304</v>
+        <v>111697636</v>
       </c>
       <c r="B4" t="n">
-        <v>8377</v>
+        <v>88489</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -989,36 +971,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106545</v>
+        <v>1962</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1026,10 +1006,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>373090.8741807578</v>
+        <v>373112.5181173298</v>
       </c>
       <c r="R4" t="n">
-        <v>6865424.499624529</v>
+        <v>6865358.590016441</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1072,6 +1052,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Växer under rötad gammal silverved</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1091,7 +1076,22 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Luckig tallskog. K-skog</t>
+          <t>Kontinuitetsskog. Tallskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>

--- a/artfynd/A 37664-2023.xlsx
+++ b/artfynd/A 37664-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111697236</v>
+        <v>111697304</v>
       </c>
       <c r="B2" t="n">
         <v>8377</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>373121.3523494597</v>
+        <v>373090.8741807578</v>
       </c>
       <c r="R2" t="n">
-        <v>6865443.651501717</v>
+        <v>6865424.499624529</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -794,22 +794,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Luckig tallskog. K-skog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -827,10 +812,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111697304</v>
+        <v>111697636</v>
       </c>
       <c r="B3" t="n">
-        <v>8377</v>
+        <v>88489</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -839,36 +824,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106545</v>
+        <v>1962</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -876,10 +859,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>373090.8741807578</v>
+        <v>373112.5181173298</v>
       </c>
       <c r="R3" t="n">
-        <v>6865424.499624529</v>
+        <v>6865358.590016441</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -922,6 +905,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Växer under rötad gammal silverved</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -941,7 +929,22 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Luckig tallskog. K-skog</t>
+          <t>Kontinuitetsskog. Tallskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -959,10 +962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111697636</v>
+        <v>111697236</v>
       </c>
       <c r="B4" t="n">
-        <v>88489</v>
+        <v>8377</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -971,34 +974,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1962</v>
+        <v>106545</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1006,10 +1011,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>373112.5181173298</v>
+        <v>373121.3523494597</v>
       </c>
       <c r="R4" t="n">
-        <v>6865358.590016441</v>
+        <v>6865443.651501717</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1041,7 +1046,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1051,12 +1056,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Växer under rötad gammal silverved</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Kontinuitetsskog. Tallskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">

--- a/artfynd/A 37664-2023.xlsx
+++ b/artfynd/A 37664-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111697236</v>
+        <v>111697636</v>
       </c>
       <c r="B2" t="n">
-        <v>8377</v>
+        <v>88489</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,36 +692,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106545</v>
+        <v>1962</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -729,10 +727,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>373121.3523494597</v>
+        <v>373112.5181173298</v>
       </c>
       <c r="R2" t="n">
-        <v>6865443.651501717</v>
+        <v>6865358.590016441</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -764,7 +762,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -774,7 +772,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Växer under rötad gammal silverved</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -794,7 +797,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
+          <t>Kontinuitetsskog. Tallskog</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -827,10 +830,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111697636</v>
+        <v>111697304</v>
       </c>
       <c r="B3" t="n">
-        <v>88489</v>
+        <v>8377</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -839,34 +842,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1962</v>
+        <v>106545</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -874,10 +879,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>373112.5181173298</v>
+        <v>373090.8741807578</v>
       </c>
       <c r="R3" t="n">
-        <v>6865358.590016441</v>
+        <v>6865424.499624529</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -920,11 +925,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Växer under rötad gammal silverved</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -944,22 +944,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Kontinuitetsskog. Tallskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Luckig tallskog. K-skog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -977,7 +962,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111697304</v>
+        <v>111697236</v>
       </c>
       <c r="B4" t="n">
         <v>8377</v>
@@ -1026,10 +1011,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>373090.8741807578</v>
+        <v>373121.3523494597</v>
       </c>
       <c r="R4" t="n">
-        <v>6865424.499624529</v>
+        <v>6865443.651501717</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1061,7 +1046,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1071,7 +1056,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1091,7 +1076,22 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Luckig tallskog. K-skog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>

--- a/artfynd/A 37664-2023.xlsx
+++ b/artfynd/A 37664-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111697304</v>
+        <v>111697636</v>
       </c>
       <c r="B2" t="n">
-        <v>8377</v>
+        <v>88489</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,36 +692,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106545</v>
+        <v>1962</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -729,10 +727,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>373090.8741807578</v>
+        <v>373112.5181173298</v>
       </c>
       <c r="R2" t="n">
-        <v>6865424.499624529</v>
+        <v>6865358.590016441</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -775,6 +773,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Växer under rötad gammal silverved</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -794,7 +797,22 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Luckig tallskog. K-skog</t>
+          <t>Kontinuitetsskog. Tallskog</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -812,7 +830,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111697236</v>
+        <v>111697304</v>
       </c>
       <c r="B3" t="n">
         <v>8377</v>
@@ -861,10 +879,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>373121.3523494597</v>
+        <v>373090.8741807578</v>
       </c>
       <c r="R3" t="n">
-        <v>6865443.651501717</v>
+        <v>6865424.499624529</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -896,7 +914,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -906,7 +924,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -926,22 +944,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Luckig tallskog. K-skog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -959,10 +962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111697636</v>
+        <v>111697236</v>
       </c>
       <c r="B4" t="n">
-        <v>88489</v>
+        <v>8377</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -971,34 +974,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1962</v>
+        <v>106545</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1006,10 +1011,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>373112.5181173298</v>
+        <v>373121.3523494597</v>
       </c>
       <c r="R4" t="n">
-        <v>6865358.590016441</v>
+        <v>6865443.651501717</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1041,7 +1046,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1051,12 +1056,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Växer under rötad gammal silverved</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Kontinuitetsskog. Tallskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">

--- a/artfynd/A 37664-2023.xlsx
+++ b/artfynd/A 37664-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111697636</v>
+        <v>111697236</v>
       </c>
       <c r="B2" t="n">
-        <v>88489</v>
+        <v>8377</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,34 +692,36 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1962</v>
+        <v>106545</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -727,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>373112.5181173298</v>
+        <v>373121</v>
       </c>
       <c r="R2" t="n">
-        <v>6865358.590016441</v>
+        <v>6865444</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -760,24 +762,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Växer under rötad gammal silverved</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,7 +784,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Kontinuitetsskog. Tallskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>373090.8741807578</v>
+        <v>373091</v>
       </c>
       <c r="R3" t="n">
-        <v>6865424.499624529</v>
+        <v>6865424</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -962,10 +949,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111697236</v>
+        <v>111697636</v>
       </c>
       <c r="B4" t="n">
-        <v>8377</v>
+        <v>88489</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -974,36 +961,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106545</v>
+        <v>1962</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -1011,10 +996,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>373121.3523494597</v>
+        <v>373113</v>
       </c>
       <c r="R4" t="n">
-        <v>6865443.651501717</v>
+        <v>6865359</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1046,7 +1031,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1056,7 +1041,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Växer under rötad gammal silverved</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1076,7 +1066,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
+          <t>Kontinuitetsskog. Tallskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
